--- a/UniApplikation/OutputFiles/WPM8.xlsx
+++ b/UniApplikation/OutputFiles/WPM8.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Platznummer</t>
   </si>
   <si>
     <t>Studentenname</t>
-  </si>
-  <si>
-    <t>Althaus</t>
   </si>
 </sst>
 </file>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,14 +361,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UniApplikation/OutputFiles/WPM8.xlsx
+++ b/UniApplikation/OutputFiles/WPM8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/UniApplikation/OutputFiles/WPM8.xlsx
+++ b/UniApplikation/OutputFiles/WPM8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
